--- a/BackTest/2019-10-26 BackTest PLY.xlsx
+++ b/BackTest/2019-10-26 BackTest PLY.xlsx
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -27961,14 +27961,20 @@
         <v>3.832000000000003</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.82</v>
+      </c>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -27996,14 +28002,20 @@
         <v>3.834000000000003</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.82</v>
+      </c>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28031,14 +28043,20 @@
         <v>3.838000000000003</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28066,14 +28084,20 @@
         <v>3.844000000000003</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28101,14 +28125,20 @@
         <v>3.852000000000003</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28143,7 +28173,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28178,7 +28212,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28213,7 +28251,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28248,7 +28290,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28283,7 +28329,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28318,7 +28368,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28353,7 +28407,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28381,18 +28439,16 @@
         <v>3.860000000000002</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>3.87</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M800" t="n">
@@ -28422,14 +28478,12 @@
         <v>3.864000000000002</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
         <v>0</v>
       </c>
-      <c r="J801" t="n">
-        <v>3.88</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="inlineStr">
         <is>
@@ -28619,14 +28673,12 @@
         <v>3.852000000000003</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
       <c r="L806" t="inlineStr">
         <is>
@@ -28660,14 +28712,12 @@
         <v>3.842000000000004</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr">
         <is>
@@ -28701,14 +28751,12 @@
         <v>3.842000000000005</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
       <c r="L808" t="inlineStr">
         <is>
@@ -28742,14 +28790,12 @@
         <v>3.842000000000005</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
       <c r="L809" t="inlineStr">
         <is>
@@ -28783,14 +28829,12 @@
         <v>3.842000000000005</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>3.83</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr">
         <is>
@@ -28824,14 +28868,12 @@
         <v>3.840000000000004</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
       <c r="L811" t="inlineStr">
         <is>
@@ -28865,14 +28907,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="inlineStr">
         <is>
@@ -28906,14 +28946,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>3.83</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
       <c r="L813" t="inlineStr">
         <is>
@@ -28947,14 +28985,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
       <c r="L814" t="inlineStr">
         <is>
@@ -28988,14 +29024,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="inlineStr">
         <is>
@@ -29029,14 +29063,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr">
         <is>
@@ -29070,14 +29102,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr">
         <is>
@@ -29111,14 +29141,12 @@
         <v>3.838000000000004</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
       <c r="L818" t="inlineStr">
         <is>
@@ -29152,14 +29180,12 @@
         <v>3.840000000000004</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="inlineStr">
         <is>
@@ -29193,14 +29219,12 @@
         <v>3.844000000000004</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="inlineStr">
         <is>
@@ -29234,14 +29258,12 @@
         <v>3.846000000000005</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
       <c r="L821" t="inlineStr">
         <is>
@@ -29275,14 +29297,12 @@
         <v>3.848000000000005</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="inlineStr">
         <is>
@@ -29316,14 +29336,12 @@
         <v>3.858000000000004</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="inlineStr">
         <is>
@@ -29357,14 +29375,12 @@
         <v>3.860000000000004</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>3.87</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr">
         <is>
@@ -29398,14 +29414,12 @@
         <v>3.858000000000004</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>3.84</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr">
         <is>
@@ -29439,14 +29453,12 @@
         <v>3.862000000000004</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
       <c r="L826" t="inlineStr">
         <is>
@@ -29480,14 +29492,12 @@
         <v>3.870000000000004</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>3.87</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="inlineStr">
         <is>
@@ -29521,14 +29531,12 @@
         <v>3.874000000000004</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="n">
-        <v>3.89</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr">
         <is>
@@ -29562,14 +29570,12 @@
         <v>3.882000000000004</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
       <c r="L829" t="inlineStr">
         <is>
@@ -29603,14 +29609,12 @@
         <v>3.890000000000003</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="n">
         <v>0</v>
       </c>
-      <c r="J830" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="inlineStr">
         <is>
@@ -30034,14 +30038,12 @@
         <v>3.874000000000004</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>3.88</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr">
         <is>
@@ -33081,16 +33083,18 @@
         <v>0</v>
       </c>
       <c r="I919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
       <c r="L919" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M919" t="inlineStr"/>
+      <c r="M919" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="1" t="n">
@@ -33118,11 +33122,15 @@
         <v>0</v>
       </c>
       <c r="I920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -33153,11 +33161,15 @@
         <v>0</v>
       </c>
       <c r="I921" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -33188,11 +33200,15 @@
         <v>0</v>
       </c>
       <c r="I922" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -33223,11 +33239,15 @@
         <v>0</v>
       </c>
       <c r="I923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest PLY.xlsx
+++ b/BackTest/2019-10-26 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>1882026.2337</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1739678.995000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2426141.844600001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2540530.559300001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2405201.929600001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3310829.576167569</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3126843.806367569</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3064670.087867569</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3076651.408567569</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3014763.762467569</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3196773.156667569</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3090532.089667569</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3162068.348467569</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3268265.252667569</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3203040.470267569</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3203030.470267569</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3203130.470267569</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3206491.470267569</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3164386.168467569</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3181034.736967569</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3181024.305467569</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3181024.305467569</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3181024.305467569</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3516936.212367569</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3939483.728767569</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3938532.728767569</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3938512.728767569</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3947452.728767569</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4144775.780867569</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3995866.294467569</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>4100128.170867569</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>4100118.170867569</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>4132627.437467569</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2329355.826467569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2229258.082167569</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2229258.082167569</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2083353.993667569</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1754665.075167569</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1754675.075167569</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2413102.065167569</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1960736.837167569</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1725716.837167569</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1725726.837167569</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1660070.661467568</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1363871.475867569</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1364381.475867569</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1557454.559267569</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1557542.559267569</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1496496.559267569</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1552308.559267569</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1552308.559267569</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1942013.660967569</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>78949.60906756893</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>216509.6871675689</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-216072.5739324311</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-378013.3511324311</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-229162.9497324311</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-136866.5317324311</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-138215.2106324311</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-536530.2883324311</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-549863.7367324311</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-584976.375432431</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-609748.5495324309</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-553157.9461324309</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-763397.392932431</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-763387.392932431</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-763397.392932431</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-763417.392932431</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-763407.392932431</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-931917.392932431</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-864991.062532431</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1044158.917532431</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1044148.917532431</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1109346.205632431</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1229972.795932431</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1355928.648032431</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1420462.203832431</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1513565.203832431</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1442088.954332431</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1376579.752232431</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1440573.857832431</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1297595.586232431</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1119567.692432431</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1259655.759132431</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1163121.764632431</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1023808.262132431</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1259295.63573243</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1177021.81023243</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1190021.81023243</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1189921.81023243</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1405620.701932431</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3555226.44713243</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3667563.63703243</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3825821.68873243</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3653471.66593243</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3771291.14703243</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3830248.24743243</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3830248.24743243</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3919052.46483243</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-4098334.11683243</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-3990401.66273243</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-3990401.66273243</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-4076234.89123243</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-5081964.707932431</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-5098197.354832431</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-9131734.758432433</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-8843301.997632433</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-8843301.997632433</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-9195853.880632438</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-8952905.206832437</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-9124200.575332437</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-9124200.575332437</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-9208380.575332437</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-9601234.571632437</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-7917195.407732437</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-8058348.686132438</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-8259692.286032437</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-8259692.286032437</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-9170983.920132436</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-8979555.487232435</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-9501530.185454927</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-9515962.417554928</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-9515962.417554928</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-9887621.142754927</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-9643223.142754927</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -27280,10 +27280,14 @@
         <v>-16643416.76573068</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J815" t="n">
+        <v>3.9</v>
+      </c>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
@@ -27313,11 +27317,19 @@
         <v>-16643416.76573068</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J816" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27346,11 +27358,19 @@
         <v>-15838965.14203067</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J817" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +27399,19 @@
         <v>-15345870.09123068</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J818" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +27440,19 @@
         <v>-15413102.37953068</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J819" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27481,19 @@
         <v>-15413102.37953068</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J820" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27481,8 +27525,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27561,19 @@
         <v>-15579059.32323068</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27547,8 +27605,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27641,19 @@
         <v>-15892242.90443068</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J824" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27613,8 +27685,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27721,19 @@
         <v>-15892242.90443068</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J826" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +27762,19 @@
         <v>-15923339.90443068</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J827" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27803,19 @@
         <v>-15698922.16843068</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J828" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27745,8 +27847,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +27883,19 @@
         <v>-15698922.16843068</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J830" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +27924,19 @@
         <v>-15513630.62663068</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J831" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27841,11 +27965,19 @@
         <v>-15591936.64943068</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J832" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27877,8 +28009,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +28045,19 @@
         <v>-15709829.23313068</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J834" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28086,19 @@
         <v>-15689437.30233068</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J835" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,11 +28127,19 @@
         <v>-15689437.30233068</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J836" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +28168,19 @@
         <v>-15926344.95493068</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J837" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28209,19 @@
         <v>-15926344.95493068</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28250,19 @@
         <v>-15602709.92433068</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J839" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28291,19 @@
         <v>-16189710.74993068</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J840" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28332,19 @@
         <v>-16367717.36663068</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J841" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28373,19 @@
         <v>-16430764.20073068</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28414,19 @@
         <v>-16454013.73303068</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J843" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28455,19 @@
         <v>-16477217.08653068</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28496,19 @@
         <v>-17013824.47503068</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J845" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,11 +28537,19 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J846" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28578,19 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="J847" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28369,11 +28619,19 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="J848" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +28660,19 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J849" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +28701,19 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J850" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +28742,19 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J851" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +28783,19 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J852" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +28824,19 @@
         <v>-16688130.93943068</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J853" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28865,19 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J854" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +28906,19 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J855" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28947,19 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J856" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +28988,19 @@
         <v>-17177319.31293068</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J857" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29029,19 @@
         <v>-16681451.81213068</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J858" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29070,19 @@
         <v>-16578070.70393068</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J859" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29111,19 @@
         <v>-16578070.70393068</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J860" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +29152,19 @@
         <v>-16088521.90143068</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J861" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +29193,19 @@
         <v>-16644309.01533068</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J862" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +29234,19 @@
         <v>-16626478.06333068</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J863" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29275,19 @@
         <v>-16626478.06333068</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J864" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29316,19 @@
         <v>-16625110.96803068</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J865" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29357,19 @@
         <v>-16625110.96803068</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J866" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28996,11 +29398,19 @@
         <v>-17835456.37203068</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J867" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29439,19 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J868" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29480,19 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J869" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29521,19 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J870" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29562,19 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J871" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29161,11 +29603,19 @@
         <v>-17668271.47253067</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J872" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29194,15 +29644,19 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>3.83</v>
       </c>
       <c r="J873" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K873" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,17 +29685,17 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>3.84</v>
       </c>
       <c r="J874" t="n">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L874" t="n">
@@ -29272,17 +29726,17 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>3.84</v>
       </c>
       <c r="J875" t="n">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L875" t="n">
@@ -29313,15 +29767,19 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>3.84</v>
       </c>
       <c r="J876" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="K876" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29350,17 +29808,17 @@
         <v>-17976651.57103068</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="n">
         <v>3.84</v>
       </c>
       <c r="J877" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L877" t="n">
@@ -29391,13 +29849,13 @@
         <v>-17741264.81613068</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>3.83</v>
       </c>
       <c r="J878" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29432,13 +29890,13 @@
         <v>-17311840.63773068</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>3.85</v>
       </c>
       <c r="J879" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29473,13 +29931,13 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>3.86</v>
       </c>
       <c r="J880" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29514,13 +29972,13 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>3.85</v>
       </c>
       <c r="J881" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -29555,13 +30013,13 @@
         <v>-17313604.37513068</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>3.85</v>
       </c>
       <c r="J882" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -29596,13 +30054,13 @@
         <v>-17453310.50093068</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>3.88</v>
       </c>
       <c r="J883" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -29637,11 +30095,13 @@
         <v>-17876559.37383068</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J884" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -29676,11 +30136,13 @@
         <v>-17684700.60293068</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J885" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -29715,11 +30177,13 @@
         <v>-17507657.69103068</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J886" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -29758,7 +30222,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -29793,11 +30257,13 @@
         <v>-17365162.75463068</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J888" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -29836,7 +30302,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -29875,7 +30341,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -29910,11 +30376,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J891" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -29949,11 +30417,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J892" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -29988,11 +30458,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J893" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30027,11 +30499,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J894" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30070,7 +30544,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30109,7 +30583,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30148,7 +30622,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30183,11 +30657,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J898" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30222,11 +30698,13 @@
         <v>-17303661.97793068</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J899" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30265,7 +30743,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30304,7 +30782,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -30339,11 +30817,13 @@
         <v>-17428814.41113069</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J902" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -30382,7 +30862,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -30421,7 +30901,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30460,7 +30940,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30499,7 +30979,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -30538,7 +31018,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -30577,7 +31057,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -30616,7 +31096,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -30655,7 +31135,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -30694,7 +31174,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -30733,7 +31213,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -30772,7 +31252,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -30811,7 +31291,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -30850,7 +31330,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -30889,7 +31369,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -30924,11 +31404,13 @@
         <v>-18051476.06443068</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J917" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -30963,11 +31445,13 @@
         <v>-18290735.53183068</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J918" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31002,11 +31486,13 @@
         <v>-18290735.53183068</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J919" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31041,11 +31527,13 @@
         <v>-18163752.77413068</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J920" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31080,11 +31568,13 @@
         <v>-18233721.89043069</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J921" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31119,11 +31609,13 @@
         <v>-18233721.89043069</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J922" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31158,11 +31650,13 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J923" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31197,11 +31691,13 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J924" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31236,11 +31732,13 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J925" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31275,11 +31773,13 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J926" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31314,11 +31814,13 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J927" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31353,11 +31855,13 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J928" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31392,11 +31896,13 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J929" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31431,11 +31937,13 @@
         <v>-17926666.79873069</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J930" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31470,11 +31978,13 @@
         <v>-18208406.88323069</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J931" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31513,7 +32023,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31552,7 +32062,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31591,7 +32101,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -31630,7 +32140,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -31669,7 +32179,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -31708,7 +32218,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -31747,7 +32257,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -31786,7 +32296,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -31825,7 +32335,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31864,7 +32374,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31903,7 +32413,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31942,7 +32452,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31981,7 +32491,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32020,7 +32530,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32059,7 +32569,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32098,7 +32608,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32137,7 +32647,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32176,7 +32686,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32215,7 +32725,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32250,11 +32760,13 @@
         <v>-17530884.64893069</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J951" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32289,11 +32801,13 @@
         <v>-17530884.64893069</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J952" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32328,11 +32842,13 @@
         <v>-17489515.75663069</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J953" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32367,11 +32883,13 @@
         <v>-17440228.95053069</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J954" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32406,11 +32924,13 @@
         <v>-17211180.55073069</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J955" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32449,7 +32969,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32488,7 +33008,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32527,7 +33047,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32566,7 +33086,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32605,7 +33125,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32644,7 +33164,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32683,7 +33203,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32722,7 +33242,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32761,7 +33281,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32800,7 +33320,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -32839,7 +33359,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -32878,7 +33398,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -32917,7 +33437,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -32956,7 +33476,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -32995,7 +33515,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -33034,7 +33554,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -33073,7 +33593,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -33112,7 +33632,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -33151,7 +33671,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -33190,7 +33710,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -33229,7 +33749,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -33268,7 +33788,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -33307,7 +33827,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -33346,7 +33866,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -33385,7 +33905,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -33424,7 +33944,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -33463,7 +33983,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -33502,7 +34022,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33541,7 +34061,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33580,7 +34100,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33619,7 +34139,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33658,7 +34178,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33693,23 +34213,21 @@
         <v>-16936729.14373069</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L988" t="n">
-        <v>1.060104166666667</v>
-      </c>
-      <c r="M988" t="n">
-        <v>1.086614173228346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
     </row>
     <row r="989">
       <c r="A989" s="1" t="n">
@@ -33737,8 +34255,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33770,8 +34294,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33803,8 +34333,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33836,14 +34372,20 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
       <c r="M992" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PLY.xlsx
+++ b/BackTest/2019-10-26 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>1882026.2337</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1739678.995000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2553503.405500001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2553614.405500001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2553604.405500001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2716133.119800001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2911624.069100001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2757961.352900001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2826909.353500001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>2753173.196600001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2531279.196200001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>2696733.692200001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2467937.844600001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2426141.844600001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2540530.559300001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2405201.929600001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3014763.762467569</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3196773.156667569</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3090532.089667569</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3162068.348467569</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3020535.426467569</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3268265.252667569</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3203040.470267569</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3203030.470267569</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3203130.470267569</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3206491.470267569</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3164386.168467569</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3181034.736967569</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3181024.305467569</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4144775.780867569</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2329355.826467569</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2229258.082167569</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2229258.082167569</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2083353.993667569</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1754665.075167569</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1754675.075167569</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2413102.065167569</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2255914.428167569</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1960736.837167569</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1725716.837167569</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1725726.837167569</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1660070.661467568</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1363871.475867569</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1364381.475867569</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1348199.935267569</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1557454.559267569</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1557542.559267569</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1496496.559267569</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1552308.559267569</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1552308.559267569</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1942013.660967569</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>216509.6871675689</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-216072.5739324311</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-510719.0966324311</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-510709.0966324311</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-510699.0966324311</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-578801.899132431</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-584976.375432431</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-864991.062532431</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1232076.473932431</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1289958.294132431</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1044148.917532431</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1109346.205632431</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1229972.795932431</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1420462.203832431</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1513565.203832431</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1442088.954332431</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1376579.752232431</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1440573.857832431</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1297595.586232431</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1119567.692432431</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1259655.759132431</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1163121.764632431</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1023808.262132431</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1259295.63573243</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1177021.81023243</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1190021.81023243</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1189921.81023243</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1405620.701932431</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3555226.44713243</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3667563.63703243</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3596595.45503243</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3825821.68873243</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3809398.10673243</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3653471.66593243</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3771291.14703243</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3769155.14703243</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3830248.24743243</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3830248.24743243</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3919052.46483243</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-4098334.11683243</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-3990401.66273243</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-3990401.66273243</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-4076234.89123243</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-9131734.758432433</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-8843301.997632433</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-8843301.997632433</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-9195853.880632438</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-8952905.206832437</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-9347124.790632436</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-9124200.575332437</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-9124200.575332437</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-9208380.575332437</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-9523898.571632437</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-9601234.571632437</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-7917195.407732437</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-8058348.686132438</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-8259692.286032437</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-8259692.286032437</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-8801490.199332437</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-9170983.920132436</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-8979555.487232435</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-8996438.669632435</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-9352246.708454929</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-9501530.185454927</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-9135319.421954928</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-9595290.487154927</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-9515962.417554928</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-9515962.417554928</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-9887621.142754927</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-9643223.142754927</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -27280,14 +27280,10 @@
         <v>-16643416.76573068</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J815" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
@@ -27317,19 +27313,11 @@
         <v>-16643416.76573068</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J816" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27358,911 +27346,747 @@
         <v>-15838965.14203067</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="n">
+        <v>1</v>
+      </c>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
         <v>3.91</v>
       </c>
-      <c r="J817" t="n">
+      <c r="C818" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D818" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E818" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F818" t="n">
+        <v>493095.0508</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-15345870.09123068</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C819" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D819" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E819" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F819" t="n">
+        <v>67232.2883</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-15413102.37953068</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C820" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D820" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E820" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F820" t="n">
+        <v>53421.7391</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-15413102.37953068</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="n">
+        <v>1</v>
+      </c>
+      <c r="M820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C821" t="n">
         <v>3.9</v>
       </c>
-      <c r="K817" t="inlineStr">
+      <c r="D821" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E821" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F821" t="n">
+        <v>165956.9437</v>
+      </c>
+      <c r="G821" t="n">
+        <v>-15579059.32323068</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="n">
+        <v>1</v>
+      </c>
+      <c r="M821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E822" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F822" t="n">
+        <v>247140.6946</v>
+      </c>
+      <c r="G822" t="n">
+        <v>-15579059.32323068</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="n">
+        <v>1</v>
+      </c>
+      <c r="M822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C823" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D823" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E823" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F823" t="n">
+        <v>313183.5812</v>
+      </c>
+      <c r="G823" t="n">
+        <v>-15892242.90443068</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="n">
+        <v>1</v>
+      </c>
+      <c r="M823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C824" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D824" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E824" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F824" t="n">
+        <v>410764.0595</v>
+      </c>
+      <c r="G824" t="n">
+        <v>-15892242.90443068</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D825" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F825" t="n">
+        <v>239887.6011</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-15892242.90443068</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D826" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E826" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F826" t="n">
+        <v>215379.0513</v>
+      </c>
+      <c r="G826" t="n">
+        <v>-15892242.90443068</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D827" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F827" t="n">
+        <v>31097</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-15923339.90443068</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F828" t="n">
+        <v>224417.736</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-15698922.16843068</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D829" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E829" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F829" t="n">
+        <v>161230.5444</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-15698922.16843068</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F830" t="n">
+        <v>390643.3154</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-15698922.16843068</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F831" t="n">
+        <v>185291.5418</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-15513630.62663068</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F832" t="n">
+        <v>78306.02280000001</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-15591936.64943068</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F833" t="n">
+        <v>103102.7835</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-15695039.43293068</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F834" t="n">
+        <v>14789.8002</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-15709829.23313068</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F835" t="n">
+        <v>20391.9308</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-15689437.30233068</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F836" t="n">
+        <v>107044.473</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-15689437.30233068</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F837" t="n">
+        <v>236907.6526</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-15926344.95493068</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F838" t="n">
+        <v>39389.3514</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-15926344.95493068</v>
+      </c>
+      <c r="H838" t="n">
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F839" t="n">
+        <v>323635.0306</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-15602709.92433068</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K839" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L817" t="n">
-        <v>1</v>
-      </c>
-      <c r="M817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C818" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D818" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E818" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F818" t="n">
-        <v>493095.0508</v>
-      </c>
-      <c r="G818" t="n">
-        <v>-15345870.09123068</v>
-      </c>
-      <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J818" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
-      <c r="M818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C819" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D819" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E819" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F819" t="n">
-        <v>67232.2883</v>
-      </c>
-      <c r="G819" t="n">
-        <v>-15413102.37953068</v>
-      </c>
-      <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J819" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L819" t="n">
-        <v>1</v>
-      </c>
-      <c r="M819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C820" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D820" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E820" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F820" t="n">
-        <v>53421.7391</v>
-      </c>
-      <c r="G820" t="n">
-        <v>-15413102.37953068</v>
-      </c>
-      <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J820" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L820" t="n">
-        <v>1</v>
-      </c>
-      <c r="M820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C821" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D821" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E821" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F821" t="n">
-        <v>165956.9437</v>
-      </c>
-      <c r="G821" t="n">
-        <v>-15579059.32323068</v>
-      </c>
-      <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L821" t="n">
-        <v>1</v>
-      </c>
-      <c r="M821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F822" t="n">
-        <v>247140.6946</v>
-      </c>
-      <c r="G822" t="n">
-        <v>-15579059.32323068</v>
-      </c>
-      <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J822" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L822" t="n">
-        <v>1</v>
-      </c>
-      <c r="M822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C823" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D823" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E823" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F823" t="n">
-        <v>313183.5812</v>
-      </c>
-      <c r="G823" t="n">
-        <v>-15892242.90443068</v>
-      </c>
-      <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L823" t="n">
-        <v>1</v>
-      </c>
-      <c r="M823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C824" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D824" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E824" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F824" t="n">
-        <v>410764.0595</v>
-      </c>
-      <c r="G824" t="n">
-        <v>-15892242.90443068</v>
-      </c>
-      <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J824" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C825" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D825" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E825" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F825" t="n">
-        <v>239887.6011</v>
-      </c>
-      <c r="G825" t="n">
-        <v>-15892242.90443068</v>
-      </c>
-      <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C826" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D826" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E826" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F826" t="n">
-        <v>215379.0513</v>
-      </c>
-      <c r="G826" t="n">
-        <v>-15892242.90443068</v>
-      </c>
-      <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J826" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C827" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D827" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E827" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F827" t="n">
-        <v>31097</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-15923339.90443068</v>
-      </c>
-      <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J827" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C828" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D828" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E828" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F828" t="n">
-        <v>224417.736</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-15698922.16843068</v>
-      </c>
-      <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J828" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C829" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D829" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E829" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F829" t="n">
-        <v>161230.5444</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-15698922.16843068</v>
-      </c>
-      <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C830" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D830" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E830" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F830" t="n">
-        <v>390643.3154</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-15698922.16843068</v>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J830" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C831" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D831" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E831" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F831" t="n">
-        <v>185291.5418</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-15513630.62663068</v>
-      </c>
-      <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J831" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C832" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D832" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E832" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F832" t="n">
-        <v>78306.02280000001</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-15591936.64943068</v>
-      </c>
-      <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J832" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C833" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D833" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E833" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F833" t="n">
-        <v>103102.7835</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-15695039.43293068</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C834" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D834" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E834" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F834" t="n">
-        <v>14789.8002</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-15709829.23313068</v>
-      </c>
-      <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J834" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C835" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D835" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E835" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F835" t="n">
-        <v>20391.9308</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-15689437.30233068</v>
-      </c>
-      <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J835" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C836" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D836" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E836" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F836" t="n">
-        <v>107044.473</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-15689437.30233068</v>
-      </c>
-      <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J836" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C837" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D837" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E837" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F837" t="n">
-        <v>236907.6526</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-15926344.95493068</v>
-      </c>
-      <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J837" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F838" t="n">
-        <v>39389.3514</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-15926344.95493068</v>
-      </c>
-      <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J838" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C839" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D839" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E839" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F839" t="n">
-        <v>323635.0306</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-15602709.92433068</v>
-      </c>
-      <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J839" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28291,13 +28115,11 @@
         <v>-16189710.74993068</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28332,13 +28154,11 @@
         <v>-16367717.36663068</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J841" t="n">
-        <v>3.9</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28379,7 +28199,7 @@
         <v>3.87</v>
       </c>
       <c r="J842" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28420,7 +28240,7 @@
         <v>3.86</v>
       </c>
       <c r="J843" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28461,7 +28281,7 @@
         <v>3.85</v>
       </c>
       <c r="J844" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -28502,7 +28322,7 @@
         <v>3.84</v>
       </c>
       <c r="J845" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28543,7 +28363,7 @@
         <v>3.83</v>
       </c>
       <c r="J846" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28584,7 +28404,7 @@
         <v>3.82</v>
       </c>
       <c r="J847" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28625,7 +28445,7 @@
         <v>3.82</v>
       </c>
       <c r="J848" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -28666,7 +28486,7 @@
         <v>3.86</v>
       </c>
       <c r="J849" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -28707,7 +28527,7 @@
         <v>3.86</v>
       </c>
       <c r="J850" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -28742,13 +28562,11 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -28783,13 +28601,11 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -28824,13 +28640,11 @@
         <v>-16688130.93943068</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -28865,13 +28679,11 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -28906,13 +28718,11 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -28947,13 +28757,11 @@
         <v>-16950928.37253068</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -28988,13 +28796,11 @@
         <v>-17177319.31293068</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29029,13 +28835,11 @@
         <v>-16681451.81213068</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29070,13 +28874,11 @@
         <v>-16578070.70393068</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29111,13 +28913,11 @@
         <v>-16578070.70393068</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J860" t="n">
-        <v>3.9</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29152,13 +28952,11 @@
         <v>-16088521.90143068</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J861" t="n">
-        <v>3.9</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29193,13 +28991,11 @@
         <v>-16644309.01533068</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29234,13 +29030,11 @@
         <v>-16626478.06333068</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>3.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29275,13 +29069,11 @@
         <v>-16626478.06333068</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29316,13 +29108,11 @@
         <v>-16625110.96803068</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29357,13 +29147,11 @@
         <v>-16625110.96803068</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29398,13 +29186,11 @@
         <v>-17835456.37203068</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29439,13 +29225,11 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>3.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29480,13 +29264,11 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29521,13 +29303,11 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29562,13 +29342,11 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29603,13 +29381,11 @@
         <v>-17668271.47253067</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29644,13 +29420,11 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>3.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -29685,13 +29459,11 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -29726,13 +29498,11 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -29767,13 +29537,11 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -29808,13 +29576,11 @@
         <v>-17976651.57103068</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>3.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -29849,13 +29615,11 @@
         <v>-17741264.81613068</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>3.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29890,13 +29654,11 @@
         <v>-17311840.63773068</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29931,13 +29693,11 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29972,13 +29732,11 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30013,13 +29771,11 @@
         <v>-17313604.37513068</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30054,13 +29810,11 @@
         <v>-17453310.50093068</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J883" t="n">
-        <v>3.9</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30095,13 +29849,11 @@
         <v>-17876559.37383068</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30136,13 +29888,11 @@
         <v>-17684700.60293068</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30177,13 +29927,11 @@
         <v>-17507657.69103068</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30222,7 +29970,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30257,13 +30005,11 @@
         <v>-17365162.75463068</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30302,7 +30048,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30341,7 +30087,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30376,13 +30122,11 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J891" t="n">
-        <v>3.9</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30417,13 +30161,11 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30458,13 +30200,11 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30499,13 +30239,11 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30544,7 +30282,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30583,7 +30321,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30622,7 +30360,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30657,13 +30395,11 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30698,13 +30434,11 @@
         <v>-17303661.97793068</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30743,7 +30477,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30782,7 +30516,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -30817,13 +30551,11 @@
         <v>-17428814.41113069</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -30862,7 +30594,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -30901,7 +30633,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30940,7 +30672,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30979,7 +30711,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -31018,7 +30750,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -31057,7 +30789,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -31096,7 +30828,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31135,7 +30867,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31174,7 +30906,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31213,7 +30945,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31252,7 +30984,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31291,7 +31023,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31330,7 +31062,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31369,7 +31101,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31404,13 +31136,11 @@
         <v>-18051476.06443068</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31445,13 +31175,11 @@
         <v>-18290735.53183068</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31486,13 +31214,11 @@
         <v>-18290735.53183068</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J919" t="n">
-        <v>3.9</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31527,13 +31253,11 @@
         <v>-18163752.77413068</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J920" t="n">
-        <v>3.9</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31568,13 +31292,11 @@
         <v>-18233721.89043069</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31609,13 +31331,11 @@
         <v>-18233721.89043069</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J922" t="n">
-        <v>3.9</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31650,13 +31370,11 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J923" t="n">
-        <v>3.9</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31691,13 +31409,11 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31732,13 +31448,11 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31773,13 +31487,11 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31814,13 +31526,11 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31855,13 +31565,11 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J928" t="n">
-        <v>3.9</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31896,13 +31604,11 @@
         <v>-18326666.79873069</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J929" t="n">
-        <v>3.9</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31937,13 +31643,11 @@
         <v>-17926666.79873069</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="n">
         <v>3.88</v>
-      </c>
-      <c r="J930" t="n">
-        <v>3.9</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31978,13 +31682,11 @@
         <v>-18208406.88323069</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -32023,7 +31725,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -32062,7 +31764,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -32101,7 +31803,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -32140,7 +31842,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -32179,7 +31881,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -32218,7 +31920,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -32257,7 +31959,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -32296,7 +31998,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -32335,7 +32037,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -32374,7 +32076,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -32413,7 +32115,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32452,7 +32154,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32491,7 +32193,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32530,7 +32232,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32569,7 +32271,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32608,7 +32310,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32647,7 +32349,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32686,7 +32388,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32725,7 +32427,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32760,13 +32462,11 @@
         <v>-17530884.64893069</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32801,13 +32501,11 @@
         <v>-17530884.64893069</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32842,13 +32540,11 @@
         <v>-17489515.75663069</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32883,13 +32579,11 @@
         <v>-17440228.95053069</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32924,13 +32618,11 @@
         <v>-17211180.55073069</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>3.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32969,7 +32661,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -33008,7 +32700,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -33047,7 +32739,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -33086,7 +32778,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -33125,7 +32817,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -33164,7 +32856,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -33203,7 +32895,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -33242,7 +32934,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -33281,7 +32973,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -33320,7 +33012,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -33359,7 +33051,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -33394,19 +33086,19 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L967" t="n">
-        <v>1</v>
+        <v>1.025927835051547</v>
       </c>
       <c r="M967" t="inlineStr"/>
     </row>
@@ -33433,17 +33125,11 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33472,17 +33158,11 @@
         <v>-17065803.31153069</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33511,17 +33191,11 @@
         <v>-17457892.05603069</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33550,17 +33224,11 @@
         <v>-17534128.92163069</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33589,17 +33257,11 @@
         <v>-17534118.92163069</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33628,17 +33290,11 @@
         <v>-17342118.92163069</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33667,17 +33323,11 @@
         <v>-17419767.96663069</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33706,17 +33356,11 @@
         <v>-17313757.96663069</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33748,14 +33392,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33787,14 +33425,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33826,14 +33458,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33865,14 +33491,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33904,14 +33524,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33943,14 +33557,8 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33982,14 +33590,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34021,14 +33623,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34060,14 +33656,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34099,14 +33689,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34138,14 +33722,8 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34177,14 +33755,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34216,14 +33788,8 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34255,14 +33821,8 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34294,14 +33854,8 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34333,14 +33887,8 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34372,20 +33920,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
       <c r="M992" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PLY.xlsx
+++ b/BackTest/2019-10-26 BackTest PLY.xlsx
@@ -1045,7 +1045,7 @@
         <v>1882026.2337</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1739678.995000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2553503.405500001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2553614.405500001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2553604.405500001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2716133.119800001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2911624.069100001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2757961.352900001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2826909.353500001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>2753173.196600001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2531279.196200001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>2696733.692200001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2467937.844600001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3938532.728767569</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3947452.728767569</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4144775.780867569</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>4100118.170867569</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>4132627.437467569</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2281687.381767569</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>216509.6871675689</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-216072.5739324311</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-510719.0966324311</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-510709.0966324311</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-510699.0966324311</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-578801.899132431</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-584976.375432431</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-864991.062532431</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1232076.473932431</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1289958.294132431</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1044148.917532431</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1109346.205632431</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1229972.795932431</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1295512.790132431</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1420462.203832431</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1513565.203832431</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1442088.954332431</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1376579.752232431</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1440573.857832431</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1297595.586232431</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1119567.692432431</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1259655.759132431</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1163121.764632431</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1023808.262132431</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1259295.63573243</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1177021.81023243</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1190021.81023243</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1189921.81023243</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1405620.701932431</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3555226.44713243</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-6079883.945332438</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-8095853.880632438</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-9195853.880632438</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-8186165.570132437</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-7917195.407732437</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -28039,14 +28039,10 @@
         <v>-15926344.95493068</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J838" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
@@ -28079,1514 +28075,1310 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
         <v>3.88</v>
       </c>
-      <c r="K839" t="inlineStr">
+      <c r="C840" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F840" t="n">
+        <v>587000.8256</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-16189710.74993068</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F841" t="n">
+        <v>178006.6167</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-16367717.36663068</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F842" t="n">
+        <v>63046.8341</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-16430764.20073068</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F843" t="n">
+        <v>23249.5323</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-16454013.73303068</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E844" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F844" t="n">
+        <v>23203.3535</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-16477217.08653068</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D845" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E845" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F845" t="n">
+        <v>536607.3885</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-17013824.47503068</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D846" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E846" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F846" t="n">
+        <v>133618.3482</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-17147442.82323068</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E847" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F847" t="n">
+        <v>119562</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-17147442.82323068</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D848" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E848" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F848" t="n">
+        <v>217375.7774</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-16930067.04583068</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D849" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E849" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F849" t="n">
+        <v>419152.4717</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-16930067.04583068</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C850" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D850" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E850" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F850" t="n">
+        <v>75443.8691</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-16930067.04583068</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C851" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D851" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E851" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F851" t="n">
+        <v>224194.2042</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-16930067.04583068</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D852" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E852" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F852" t="n">
+        <v>368756.9387</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-16930067.04583068</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C853" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D853" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E853" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F853" t="n">
+        <v>241936.1064</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-16688130.93943068</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C854" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D854" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E854" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F854" t="n">
+        <v>262797.4331</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-16950928.37253068</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C855" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D855" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E855" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F855" t="n">
+        <v>354810.471</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-16950928.37253068</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C856" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D856" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E856" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F856" t="n">
+        <v>274240.9967</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-16950928.37253068</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C857" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D857" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E857" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F857" t="n">
+        <v>226390.9404</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-17177319.31293068</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C858" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D858" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E858" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F858" t="n">
+        <v>495867.5008</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-16681451.81213068</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C859" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D859" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E859" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F859" t="n">
+        <v>103381.1082</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-16578070.70393068</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C860" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D860" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E860" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F860" t="n">
+        <v>318222.3586</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-16578070.70393068</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C861" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D861" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E861" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F861" t="n">
+        <v>489548.8025</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-16088521.90143068</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C862" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D862" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E862" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F862" t="n">
+        <v>555787.1139</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-16644309.01533068</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="n">
+        <v>1</v>
+      </c>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C863" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D863" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E863" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F863" t="n">
+        <v>17830.952</v>
+      </c>
+      <c r="G863" t="n">
+        <v>-16626478.06333068</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="n">
+        <v>1</v>
+      </c>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C864" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D864" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E864" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F864" t="n">
+        <v>85623.5677</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-16626478.06333068</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="n">
+        <v>1</v>
+      </c>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C865" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D865" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E865" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1367.0953</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-16625110.96803068</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="n">
+        <v>1</v>
+      </c>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F866" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G866" t="n">
+        <v>-16625110.96803068</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="n">
+        <v>1</v>
+      </c>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C867" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D867" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E867" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F867" t="n">
+        <v>1210345.404</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-17835456.37203068</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="n">
+        <v>1</v>
+      </c>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C868" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D868" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E868" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F868" t="n">
+        <v>180358.6145</v>
+      </c>
+      <c r="G868" t="n">
+        <v>-17655097.75753067</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="n">
+        <v>1</v>
+      </c>
+      <c r="M868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C869" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D869" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E869" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F869" t="n">
+        <v>322918.3333</v>
+      </c>
+      <c r="G869" t="n">
+        <v>-17655097.75753067</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="n">
+        <v>1</v>
+      </c>
+      <c r="M869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C870" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D870" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E870" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F870" t="n">
+        <v>113596</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-17655097.75753067</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="n">
+        <v>1</v>
+      </c>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F871" t="n">
+        <v>248149.0634</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-17655097.75753067</v>
+      </c>
+      <c r="H871" t="n">
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J871" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="n">
+        <v>1</v>
+      </c>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C872" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D872" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E872" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F872" t="n">
+        <v>13173.715</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-17668271.47253067</v>
+      </c>
+      <c r="H872" t="n">
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J872" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C873" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D873" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E873" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F873" t="n">
+        <v>18801.4322</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-17649470.04033067</v>
+      </c>
+      <c r="H873" t="n">
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J873" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L873" t="n">
+        <v>1</v>
+      </c>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F874" t="n">
+        <v>19101.1067</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-17649470.04033067</v>
+      </c>
+      <c r="H874" t="n">
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J874" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="n">
+        <v>1</v>
+      </c>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F875" t="n">
+        <v>264651.2804</v>
+      </c>
+      <c r="G875" t="n">
+        <v>-17649470.04033067</v>
+      </c>
+      <c r="H875" t="n">
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J875" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F876" t="n">
+        <v>393639.2304</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-17649470.04033067</v>
+      </c>
+      <c r="H876" t="n">
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J876" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L876" t="n">
+        <v>1</v>
+      </c>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C877" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D877" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E877" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F877" t="n">
+        <v>327181.5307</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-17976651.57103068</v>
+      </c>
+      <c r="H877" t="n">
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J877" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K877" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C840" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D840" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E840" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F840" t="n">
-        <v>587000.8256</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-16189710.74993068</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C841" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D841" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E841" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F841" t="n">
-        <v>178006.6167</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-16367717.36663068</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C842" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D842" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E842" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F842" t="n">
-        <v>63046.8341</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-16430764.20073068</v>
-      </c>
-      <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J842" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C843" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D843" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E843" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F843" t="n">
-        <v>23249.5323</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-16454013.73303068</v>
-      </c>
-      <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J843" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C844" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D844" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E844" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F844" t="n">
-        <v>23203.3535</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-16477217.08653068</v>
-      </c>
-      <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J844" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C845" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D845" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E845" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F845" t="n">
-        <v>536607.3885</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-17013824.47503068</v>
-      </c>
-      <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="J845" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C846" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D846" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E846" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F846" t="n">
-        <v>133618.3482</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-17147442.82323068</v>
-      </c>
-      <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J846" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C847" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D847" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E847" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F847" t="n">
-        <v>119562</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-17147442.82323068</v>
-      </c>
-      <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J847" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C848" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D848" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E848" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F848" t="n">
-        <v>217375.7774</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-16930067.04583068</v>
-      </c>
-      <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J848" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C849" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D849" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E849" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F849" t="n">
-        <v>419152.4717</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-16930067.04583068</v>
-      </c>
-      <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J849" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C850" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D850" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E850" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F850" t="n">
-        <v>75443.8691</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-16930067.04583068</v>
-      </c>
-      <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J850" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C851" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D851" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E851" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F851" t="n">
-        <v>224194.2042</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-16930067.04583068</v>
-      </c>
-      <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C852" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D852" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E852" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F852" t="n">
-        <v>368756.9387</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-16930067.04583068</v>
-      </c>
-      <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C853" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D853" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E853" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F853" t="n">
-        <v>241936.1064</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-16688130.93943068</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C854" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D854" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E854" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F854" t="n">
-        <v>262797.4331</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-16950928.37253068</v>
-      </c>
-      <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C855" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D855" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E855" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F855" t="n">
-        <v>354810.471</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-16950928.37253068</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C856" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D856" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E856" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F856" t="n">
-        <v>274240.9967</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-16950928.37253068</v>
-      </c>
-      <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C857" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D857" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E857" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F857" t="n">
-        <v>226390.9404</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-17177319.31293068</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C858" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D858" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E858" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F858" t="n">
-        <v>495867.5008</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-16681451.81213068</v>
-      </c>
-      <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C859" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D859" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E859" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F859" t="n">
-        <v>103381.1082</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-16578070.70393068</v>
-      </c>
-      <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C860" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D860" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E860" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F860" t="n">
-        <v>318222.3586</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-16578070.70393068</v>
-      </c>
-      <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C861" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D861" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E861" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F861" t="n">
-        <v>489548.8025</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-16088521.90143068</v>
-      </c>
-      <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C862" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D862" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E862" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F862" t="n">
-        <v>555787.1139</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-16644309.01533068</v>
-      </c>
-      <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L862" t="n">
-        <v>1</v>
-      </c>
-      <c r="M862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C863" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D863" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E863" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F863" t="n">
-        <v>17830.952</v>
-      </c>
-      <c r="G863" t="n">
-        <v>-16626478.06333068</v>
-      </c>
-      <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L863" t="n">
-        <v>1</v>
-      </c>
-      <c r="M863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C864" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D864" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E864" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F864" t="n">
-        <v>85623.5677</v>
-      </c>
-      <c r="G864" t="n">
-        <v>-16626478.06333068</v>
-      </c>
-      <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L864" t="n">
-        <v>1</v>
-      </c>
-      <c r="M864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C865" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D865" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E865" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F865" t="n">
-        <v>1367.0953</v>
-      </c>
-      <c r="G865" t="n">
-        <v>-16625110.96803068</v>
-      </c>
-      <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>1</v>
-      </c>
-      <c r="M865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C866" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D866" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E866" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F866" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G866" t="n">
-        <v>-16625110.96803068</v>
-      </c>
-      <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L866" t="n">
-        <v>1</v>
-      </c>
-      <c r="M866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C867" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D867" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E867" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F867" t="n">
-        <v>1210345.404</v>
-      </c>
-      <c r="G867" t="n">
-        <v>-17835456.37203068</v>
-      </c>
-      <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L867" t="n">
-        <v>1</v>
-      </c>
-      <c r="M867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C868" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D868" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E868" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F868" t="n">
-        <v>180358.6145</v>
-      </c>
-      <c r="G868" t="n">
-        <v>-17655097.75753067</v>
-      </c>
-      <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L868" t="n">
-        <v>1</v>
-      </c>
-      <c r="M868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C869" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D869" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E869" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F869" t="n">
-        <v>322918.3333</v>
-      </c>
-      <c r="G869" t="n">
-        <v>-17655097.75753067</v>
-      </c>
-      <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L869" t="n">
-        <v>1</v>
-      </c>
-      <c r="M869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C870" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D870" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E870" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F870" t="n">
-        <v>113596</v>
-      </c>
-      <c r="G870" t="n">
-        <v>-17655097.75753067</v>
-      </c>
-      <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L870" t="n">
-        <v>1</v>
-      </c>
-      <c r="M870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C871" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D871" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E871" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F871" t="n">
-        <v>248149.0634</v>
-      </c>
-      <c r="G871" t="n">
-        <v>-17655097.75753067</v>
-      </c>
-      <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L871" t="n">
-        <v>1</v>
-      </c>
-      <c r="M871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C872" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D872" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E872" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F872" t="n">
-        <v>13173.715</v>
-      </c>
-      <c r="G872" t="n">
-        <v>-17668271.47253067</v>
-      </c>
-      <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L872" t="n">
-        <v>1</v>
-      </c>
-      <c r="M872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C873" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D873" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E873" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F873" t="n">
-        <v>18801.4322</v>
-      </c>
-      <c r="G873" t="n">
-        <v>-17649470.04033067</v>
-      </c>
-      <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L873" t="n">
-        <v>1</v>
-      </c>
-      <c r="M873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C874" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D874" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E874" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F874" t="n">
-        <v>19101.1067</v>
-      </c>
-      <c r="G874" t="n">
-        <v>-17649470.04033067</v>
-      </c>
-      <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L874" t="n">
-        <v>1</v>
-      </c>
-      <c r="M874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C875" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D875" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E875" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F875" t="n">
-        <v>264651.2804</v>
-      </c>
-      <c r="G875" t="n">
-        <v>-17649470.04033067</v>
-      </c>
-      <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C876" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D876" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E876" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F876" t="n">
-        <v>393639.2304</v>
-      </c>
-      <c r="G876" t="n">
-        <v>-17649470.04033067</v>
-      </c>
-      <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L876" t="n">
-        <v>1</v>
-      </c>
-      <c r="M876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C877" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D877" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="E877" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F877" t="n">
-        <v>327181.5307</v>
-      </c>
-      <c r="G877" t="n">
-        <v>-17976651.57103068</v>
-      </c>
-      <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29615,11 +29407,13 @@
         <v>-17741264.81613068</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J878" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29654,11 +29448,13 @@
         <v>-17311840.63773068</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J879" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29693,11 +29489,13 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J880" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29732,11 +29530,13 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J881" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -29771,11 +29571,13 @@
         <v>-17313604.37513068</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J882" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -29810,11 +29612,13 @@
         <v>-17453310.50093068</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J883" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -29849,11 +29653,13 @@
         <v>-17876559.37383068</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J884" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -29888,11 +29694,13 @@
         <v>-17684700.60293068</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J885" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -29927,11 +29735,13 @@
         <v>-17507657.69103068</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J886" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -29966,11 +29776,13 @@
         <v>-17365162.75463068</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J887" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30009,7 +29821,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30048,7 +29860,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30087,7 +29899,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30126,7 +29938,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30161,11 +29973,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J892" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30200,11 +30014,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J893" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30239,11 +30055,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J894" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30278,11 +30096,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J895" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30317,11 +30137,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J896" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30356,11 +30178,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J897" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30395,11 +30219,13 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J898" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30434,11 +30260,13 @@
         <v>-17303661.97793068</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J899" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30477,7 +30305,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30516,7 +30344,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -30555,7 +30383,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -30594,7 +30422,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -30633,7 +30461,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30672,7 +30500,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30711,7 +30539,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -30750,7 +30578,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -30789,7 +30617,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -30828,7 +30656,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -30867,7 +30695,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -30906,7 +30734,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -30945,7 +30773,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -30984,7 +30812,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31023,7 +30851,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31062,7 +30890,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31101,7 +30929,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31140,7 +30968,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31179,7 +31007,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31218,7 +31046,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31257,7 +31085,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31296,7 +31124,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31335,7 +31163,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31374,7 +31202,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31413,7 +31241,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31452,7 +31280,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31491,7 +31319,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31530,7 +31358,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31569,7 +31397,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31608,7 +31436,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31647,7 +31475,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31686,7 +31514,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31725,7 +31553,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31764,7 +31592,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31803,7 +31631,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -31842,7 +31670,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -31881,7 +31709,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -31920,7 +31748,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -31959,7 +31787,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -31998,7 +31826,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -32037,7 +31865,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -32076,7 +31904,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -32115,7 +31943,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32154,7 +31982,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32193,7 +32021,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32232,7 +32060,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32271,7 +32099,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32310,7 +32138,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32349,7 +32177,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32388,7 +32216,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32427,7 +32255,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32466,7 +32294,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32505,7 +32333,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32544,7 +32372,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32583,7 +32411,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32622,7 +32450,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32661,7 +32489,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32700,7 +32528,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32739,7 +32567,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32778,7 +32606,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32817,7 +32645,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32856,7 +32684,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32895,7 +32723,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32934,7 +32762,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32973,7 +32801,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -33012,7 +32840,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -33051,7 +32879,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -33086,19 +32914,19 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L967" t="n">
-        <v>1.025927835051547</v>
+        <v>1</v>
       </c>
       <c r="M967" t="inlineStr"/>
     </row>
@@ -33125,11 +32953,17 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33158,11 +32992,17 @@
         <v>-17065803.31153069</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33191,11 +33031,17 @@
         <v>-17457892.05603069</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33224,11 +33070,17 @@
         <v>-17534128.92163069</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33257,11 +33109,17 @@
         <v>-17534118.92163069</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33290,11 +33148,17 @@
         <v>-17342118.92163069</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33323,11 +33187,17 @@
         <v>-17419767.96663069</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33356,11 +33226,17 @@
         <v>-17313757.96663069</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33392,8 +33268,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33425,8 +33307,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33458,8 +33346,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33491,8 +33385,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33524,8 +33424,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33557,8 +33463,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33590,8 +33502,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33623,8 +33541,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33656,8 +33580,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33689,8 +33619,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33722,8 +33658,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33755,8 +33697,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33788,8 +33736,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33821,8 +33775,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33854,8 +33814,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33887,8 +33853,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33920,8 +33892,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
